--- a/Instances/03_Uniform.xlsx
+++ b/Instances/03_Uniform.xlsx
@@ -1622,7 +1622,7 @@
         <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>11</v>
@@ -1651,7 +1651,7 @@
         <v>1.6412</v>
       </c>
       <c r="E3" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>16.412</v>
@@ -1680,7 +1680,7 @@
         <v>1.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>16.648</v>
@@ -1709,7 +1709,7 @@
         <v>1.69896</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>16.9896</v>
@@ -1738,7 +1738,7 @@
         <v>0.9600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>9.600000000000001</v>
@@ -1761,13 +1761,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>9.4</v>
@@ -1796,7 +1796,7 @@
         <v>1.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>15.812</v>
@@ -1825,7 +1825,7 @@
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>15.648</v>
@@ -1854,7 +1854,7 @@
         <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>4.4</v>
@@ -1883,7 +1883,7 @@
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>2.4</v>
@@ -1912,7 +1912,7 @@
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>1.6</v>
@@ -1941,7 +1941,7 @@
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>4.4</v>
@@ -1964,13 +1964,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
@@ -1999,7 +1999,7 @@
         <v>0.9600000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>9.600000000000001</v>
@@ -2028,7 +2028,7 @@
         <v>0.6012000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>6.012</v>
@@ -2057,7 +2057,7 @@
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>6.008</v>
@@ -2080,13 +2080,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>9.4</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3418,7 +3418,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3434,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3442,7 +3442,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3450,7 +3450,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.8</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3458,7 +3458,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3466,7 +3466,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>18</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3490,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>13.5</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3498,7 +3498,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3522,7 +3522,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.4</v>
+        <v>13.5</v>
       </c>
     </row>
   </sheetData>
@@ -3602,7 +3602,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/03_Uniform.xlsx
+++ b/Instances/03_Uniform.xlsx
@@ -1622,7 +1622,7 @@
         <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.8903408309835509</v>
       </c>
       <c r="F2" t="n">
         <v>11</v>
@@ -1651,7 +1651,7 @@
         <v>1.6412</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1.41968515006549</v>
       </c>
       <c r="F3" t="n">
         <v>16.412</v>
@@ -1680,7 +1680,7 @@
         <v>1.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1.687104243744389</v>
       </c>
       <c r="F4" t="n">
         <v>16.648</v>
@@ -1709,7 +1709,7 @@
         <v>1.69896</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1.919146363562179</v>
       </c>
       <c r="F5" t="n">
         <v>16.9896</v>
@@ -1738,7 +1738,7 @@
         <v>0.9600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.7905661150187638</v>
       </c>
       <c r="F6" t="n">
         <v>9.600000000000001</v>
@@ -1767,7 +1767,7 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>2.261072495358562</v>
       </c>
       <c r="F7" t="n">
         <v>9.4</v>
@@ -1796,7 +1796,7 @@
         <v>1.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1.86991569929627</v>
       </c>
       <c r="F8" t="n">
         <v>15.812</v>
@@ -1825,7 +1825,7 @@
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>3.181073013357758</v>
       </c>
       <c r="F9" t="n">
         <v>15.648</v>
@@ -1854,7 +1854,7 @@
         <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.5209860447804955</v>
       </c>
       <c r="F10" t="n">
         <v>4.4</v>
@@ -1877,13 +1877,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.7744862179075909</v>
       </c>
       <c r="F11" t="n">
         <v>2.4</v>
@@ -1906,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.5156260731871346</v>
       </c>
       <c r="F12" t="n">
         <v>1.6</v>
@@ -1935,13 +1935,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.580776807569882</v>
       </c>
       <c r="F13" t="n">
         <v>4.4</v>
@@ -1964,13 +1964,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>2.127870691941843</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
@@ -1999,7 +1999,7 @@
         <v>0.9600000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.9126116303860285</v>
       </c>
       <c r="F15" t="n">
         <v>9.600000000000001</v>
@@ -2028,7 +2028,7 @@
         <v>0.6012000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.6910249499819598</v>
       </c>
       <c r="F16" t="n">
         <v>6.012</v>
@@ -2051,13 +2051,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.154344188313775</v>
       </c>
       <c r="F17" t="n">
         <v>6.008</v>
@@ -2080,13 +2080,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>2.28765622802689</v>
       </c>
       <c r="F18" t="n">
         <v>9.4</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3418,7 +3418,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3434,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.7</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3450,7 +3450,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.4</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>14.4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3482,7 +3482,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.4</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3490,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>10.8</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3522,7 +3522,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>13.5</v>
+        <v>5.4</v>
       </c>
     </row>
   </sheetData>
@@ -3602,7 +3602,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/03_Uniform.xlsx
+++ b/Instances/03_Uniform.xlsx
@@ -1622,7 +1622,7 @@
         <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8903408309835509</v>
+        <v>0.07211532900389304</v>
       </c>
       <c r="F2" t="n">
         <v>11</v>
@@ -1651,7 +1651,7 @@
         <v>1.6412</v>
       </c>
       <c r="E3" t="n">
-        <v>1.41968515006549</v>
+        <v>0.1129193015230559</v>
       </c>
       <c r="F3" t="n">
         <v>16.412</v>
@@ -1680,7 +1680,7 @@
         <v>1.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>1.687104243744389</v>
+        <v>0.09821389542741633</v>
       </c>
       <c r="F4" t="n">
         <v>16.648</v>
@@ -1709,7 +1709,7 @@
         <v>1.69896</v>
       </c>
       <c r="E5" t="n">
-        <v>1.919146363562179</v>
+        <v>0.09026149295612591</v>
       </c>
       <c r="F5" t="n">
         <v>16.9896</v>
@@ -1738,7 +1738,7 @@
         <v>0.9600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7905661150187638</v>
+        <v>0.06468874256142833</v>
       </c>
       <c r="F6" t="n">
         <v>9.600000000000001</v>
@@ -1761,13 +1761,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>2.261072495358562</v>
+        <v>0.1793864347278819</v>
       </c>
       <c r="F7" t="n">
         <v>9.4</v>
@@ -1796,7 +1796,7 @@
         <v>1.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>1.86991569929627</v>
+        <v>0.09343417853311642</v>
       </c>
       <c r="F8" t="n">
         <v>15.812</v>
@@ -1825,7 +1825,7 @@
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>3.181073013357758</v>
+        <v>0.193353195381255</v>
       </c>
       <c r="F9" t="n">
         <v>15.648</v>
@@ -1854,7 +1854,7 @@
         <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5209860447804955</v>
+        <v>0.02877631507596845</v>
       </c>
       <c r="F10" t="n">
         <v>4.4</v>
@@ -1877,13 +1877,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7744862179075909</v>
+        <v>0.06891359549675662</v>
       </c>
       <c r="F11" t="n">
         <v>2.4</v>
@@ -1912,7 +1912,7 @@
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5156260731871346</v>
+        <v>0.03754201326073374</v>
       </c>
       <c r="F12" t="n">
         <v>1.6</v>
@@ -1941,7 +1941,7 @@
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>1.580776807569882</v>
+        <v>0.08377667295439457</v>
       </c>
       <c r="F13" t="n">
         <v>4.4</v>
@@ -1970,7 +1970,7 @@
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>2.127870691941843</v>
+        <v>0.09311806004312556</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
@@ -1999,7 +1999,7 @@
         <v>0.9600000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9126116303860285</v>
+        <v>0.05430462725280856</v>
       </c>
       <c r="F15" t="n">
         <v>9.600000000000001</v>
@@ -2028,7 +2028,7 @@
         <v>0.6012000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6910249499819598</v>
+        <v>0.04327707539880664</v>
       </c>
       <c r="F16" t="n">
         <v>6.012</v>
@@ -2051,13 +2051,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>1.154344188313775</v>
+        <v>0.07621139014604077</v>
       </c>
       <c r="F17" t="n">
         <v>6.008</v>
@@ -2080,13 +2080,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>2.28765622802689</v>
+        <v>0.1420704250874015</v>
       </c>
       <c r="F18" t="n">
         <v>9.4</v>
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3410,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3418,7 +3418,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3442,7 +3442,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3450,7 +3450,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3458,7 +3458,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>18</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3482,7 +3482,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8.1</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3490,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8.1</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3498,7 +3498,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3506,7 +3506,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3522,7 +3522,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.4</v>
+        <v>8.1</v>
       </c>
     </row>
   </sheetData>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/03_Uniform.xlsx
+++ b/Instances/03_Uniform.xlsx
@@ -1616,13 +1616,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07211532900389304</v>
+        <v>0.6362454500409294</v>
       </c>
       <c r="F2" t="n">
         <v>11</v>
@@ -1645,13 +1645,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1.6412</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1129193015230559</v>
+        <v>0.8719652041084031</v>
       </c>
       <c r="F3" t="n">
         <v>16.412</v>
@@ -1674,13 +1674,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>1.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09821389542741633</v>
+        <v>0.8412773532649678</v>
       </c>
       <c r="F4" t="n">
         <v>16.648</v>
@@ -1703,13 +1703,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>1.69896</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09026149295612591</v>
+        <v>0.8527078714984208</v>
       </c>
       <c r="F5" t="n">
         <v>16.9896</v>
@@ -1732,13 +1732,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06468874256142833</v>
+        <v>0.407360638179684</v>
       </c>
       <c r="F6" t="n">
         <v>9.600000000000001</v>
@@ -1761,13 +1761,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1793864347278819</v>
+        <v>1.523319377895121</v>
       </c>
       <c r="F7" t="n">
         <v>9.4</v>
@@ -1790,13 +1790,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>0.09343417853311642</v>
+        <v>0.8754627399771328</v>
       </c>
       <c r="F8" t="n">
         <v>15.812</v>
@@ -1825,7 +1825,7 @@
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>0.193353195381255</v>
+        <v>1.716259163185688</v>
       </c>
       <c r="F9" t="n">
         <v>15.648</v>
@@ -1848,13 +1848,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02877631507596845</v>
+        <v>0.1979470269219169</v>
       </c>
       <c r="F10" t="n">
         <v>4.4</v>
@@ -1877,13 +1877,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>0.06891359549675662</v>
+        <v>0.4225346639833198</v>
       </c>
       <c r="F11" t="n">
         <v>2.4</v>
@@ -1906,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03754201326073374</v>
+        <v>0.3376416034700511</v>
       </c>
       <c r="F12" t="n">
         <v>1.6</v>
@@ -1941,7 +1941,7 @@
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>0.08377667295439457</v>
+        <v>0.6031053654029899</v>
       </c>
       <c r="F13" t="n">
         <v>4.4</v>
@@ -1970,7 +1970,7 @@
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>0.09311806004312556</v>
+        <v>0.7298635732315411</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
@@ -1993,13 +1993,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.05430462725280856</v>
+        <v>0.5401089877077658</v>
       </c>
       <c r="F15" t="n">
         <v>9.600000000000001</v>
@@ -2022,13 +2022,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0.6012000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.04327707539880664</v>
+        <v>0.3577945463613257</v>
       </c>
       <c r="F16" t="n">
         <v>6.012</v>
@@ -2057,7 +2057,7 @@
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>0.07621139014604077</v>
+        <v>0.5502633151019715</v>
       </c>
       <c r="F17" t="n">
         <v>6.008</v>
@@ -2080,13 +2080,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1420704250874015</v>
+        <v>1.453668505734177</v>
       </c>
       <c r="F18" t="n">
         <v>9.4</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3434,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.5</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3442,7 +3442,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3458,7 +3458,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3482,7 +3482,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>10.8</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3490,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>10.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3498,7 +3498,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3506,7 +3506,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3522,7 +3522,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8.1</v>
+        <v>10.8</v>
       </c>
     </row>
   </sheetData>
@@ -3602,7 +3602,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/03_Uniform.xlsx
+++ b/Instances/03_Uniform.xlsx
@@ -1622,7 +1622,7 @@
         <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6362454500409294</v>
+        <v>0.61875</v>
       </c>
       <c r="F2" t="n">
         <v>11</v>
@@ -1651,7 +1651,7 @@
         <v>1.6412</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8719652041084031</v>
+        <v>0.9231750000000001</v>
       </c>
       <c r="F3" t="n">
         <v>16.412</v>
@@ -1680,7 +1680,7 @@
         <v>1.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8412773532649678</v>
+        <v>0.9364500000000001</v>
       </c>
       <c r="F4" t="n">
         <v>16.648</v>
@@ -1709,7 +1709,7 @@
         <v>1.69896</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8527078714984208</v>
+        <v>0.9556650000000001</v>
       </c>
       <c r="F5" t="n">
         <v>16.9896</v>
@@ -1738,7 +1738,7 @@
         <v>0.9600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.407360638179684</v>
+        <v>0.54</v>
       </c>
       <c r="F6" t="n">
         <v>9.600000000000001</v>
@@ -1767,7 +1767,7 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>1.523319377895121</v>
+        <v>1.58625</v>
       </c>
       <c r="F7" t="n">
         <v>9.4</v>
@@ -1790,13 +1790,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>1.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8754627399771328</v>
+        <v>0.8894250000000001</v>
       </c>
       <c r="F8" t="n">
         <v>15.812</v>
@@ -1819,13 +1819,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>1.716259163185688</v>
+        <v>1.7604</v>
       </c>
       <c r="F9" t="n">
         <v>15.648</v>
@@ -1848,13 +1848,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1979470269219169</v>
+        <v>0.2475</v>
       </c>
       <c r="F10" t="n">
         <v>4.4</v>
@@ -1877,13 +1877,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4225346639833198</v>
+        <v>0.54</v>
       </c>
       <c r="F11" t="n">
         <v>2.4</v>
@@ -1906,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3376416034700511</v>
+        <v>0.36</v>
       </c>
       <c r="F12" t="n">
         <v>1.6</v>
@@ -1935,13 +1935,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6031053654029899</v>
+        <v>0.7424999999999999</v>
       </c>
       <c r="F13" t="n">
         <v>4.4</v>
@@ -1970,7 +1970,7 @@
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7298635732315411</v>
+        <v>1.0125</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
@@ -1993,13 +1993,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5401089877077658</v>
+        <v>0.54</v>
       </c>
       <c r="F15" t="n">
         <v>9.600000000000001</v>
@@ -2022,13 +2022,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0.6012000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3577945463613257</v>
+        <v>0.3381750000000001</v>
       </c>
       <c r="F16" t="n">
         <v>6.012</v>
@@ -2051,13 +2051,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5502633151019715</v>
+        <v>0.6758999999999999</v>
       </c>
       <c r="F17" t="n">
         <v>6.008</v>
@@ -2080,13 +2080,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>1.453668505734177</v>
+        <v>1.58625</v>
       </c>
       <c r="F18" t="n">
         <v>9.4</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3410,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3418,7 +3418,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3434,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8.1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3442,7 +3442,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3450,7 +3450,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3458,7 +3458,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3466,7 +3466,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>10.8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3482,7 +3482,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8.1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3490,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.7</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3498,7 +3498,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2.7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3506,7 +3506,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3522,7 +3522,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>10.8</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3602,7 +3602,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/03_Uniform.xlsx
+++ b/Instances/03_Uniform.xlsx
@@ -1622,7 +1622,7 @@
         <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.61875</v>
+        <v>0.3300000000000001</v>
       </c>
       <c r="F2" t="n">
         <v>11</v>
@@ -1651,7 +1651,7 @@
         <v>1.6412</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9231750000000001</v>
+        <v>0.4923600000000001</v>
       </c>
       <c r="F3" t="n">
         <v>16.412</v>
@@ -1680,7 +1680,7 @@
         <v>1.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9364500000000001</v>
+        <v>0.4994400000000001</v>
       </c>
       <c r="F4" t="n">
         <v>16.648</v>
@@ -1709,7 +1709,7 @@
         <v>1.69896</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9556650000000001</v>
+        <v>0.509688</v>
       </c>
       <c r="F5" t="n">
         <v>16.9896</v>
@@ -1738,7 +1738,7 @@
         <v>0.9600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.54</v>
+        <v>0.288</v>
       </c>
       <c r="F6" t="n">
         <v>9.600000000000001</v>
@@ -1767,7 +1767,7 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>1.58625</v>
+        <v>0.8460000000000001</v>
       </c>
       <c r="F7" t="n">
         <v>9.4</v>
@@ -1796,7 +1796,7 @@
         <v>1.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8894250000000001</v>
+        <v>0.4743600000000001</v>
       </c>
       <c r="F8" t="n">
         <v>15.812</v>
@@ -1825,7 +1825,7 @@
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>1.7604</v>
+        <v>0.93888</v>
       </c>
       <c r="F9" t="n">
         <v>15.648</v>
@@ -1854,7 +1854,7 @@
         <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2475</v>
+        <v>0.132</v>
       </c>
       <c r="F10" t="n">
         <v>4.4</v>
@@ -1883,7 +1883,7 @@
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>0.54</v>
+        <v>0.288</v>
       </c>
       <c r="F11" t="n">
         <v>2.4</v>
@@ -1912,7 +1912,7 @@
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>0.36</v>
+        <v>0.192</v>
       </c>
       <c r="F12" t="n">
         <v>1.6</v>
@@ -1941,7 +1941,7 @@
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7424999999999999</v>
+        <v>0.396</v>
       </c>
       <c r="F13" t="n">
         <v>4.4</v>
@@ -1970,7 +1970,7 @@
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>1.0125</v>
+        <v>0.5399999999999999</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
@@ -1999,7 +1999,7 @@
         <v>0.9600000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.54</v>
+        <v>0.288</v>
       </c>
       <c r="F15" t="n">
         <v>9.600000000000001</v>
@@ -2028,7 +2028,7 @@
         <v>0.6012000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3381750000000001</v>
+        <v>0.18036</v>
       </c>
       <c r="F16" t="n">
         <v>6.012</v>
@@ -2057,7 +2057,7 @@
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6758999999999999</v>
+        <v>0.36048</v>
       </c>
       <c r="F17" t="n">
         <v>6.008</v>
@@ -2086,7 +2086,7 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>1.58625</v>
+        <v>0.8460000000000001</v>
       </c>
       <c r="F18" t="n">
         <v>9.4</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3410,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3434,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3458,7 +3458,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3466,7 +3466,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3482,7 +3482,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>15</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3490,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3498,7 +3498,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3522,7 +3522,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3602,7 +3602,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
